--- a/liste_outils.xlsx
+++ b/liste_outils.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="184">
   <si>
     <t xml:space="preserve">Liste des outils</t>
   </si>
@@ -70,12 +70,18 @@
     <t xml:space="preserve">RÉGULIER : Avec sa mie moelleuse et sa croûte croustillante, la chaude baguette française va faire raffoler les toutous.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_crayon_mine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crayon à mine</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Bien aguisé, ce crayon vous aidera certainement à éloigner vos adversaires.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_bleuet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bleuet</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t xml:space="preserve">RÉGULIER : Ces bleuets géants sont tant remplis d'OGM, de pesticides qu'ils seraient responsables de la hausse de popularité du bio chez les toutous.</t>
   </si>
   <si>
-    <t xml:space="preserve">objet_outil_seau_deau</t>
+    <t xml:space="preserve">objet_outil_seau_deau_0</t>
   </si>
   <si>
     <t xml:space="preserve">Seau d'eau</t>
@@ -94,7 +100,7 @@
     <t xml:space="preserve">RÉGULIER : Rien de mieux qu'un bon seau d'eau en pleine face pour surprendre vos adversaires!</t>
   </si>
   <si>
-    <t xml:space="preserve">objet_outil_melon_deau</t>
+    <t xml:space="preserve">objet_outil_melon_deau_0</t>
   </si>
   <si>
     <t xml:space="preserve">Melon d'eau</t>
@@ -112,48 +118,72 @@
     <t xml:space="preserve">RÉGULIER : Préparez vos munitions et démarrer la bataille de boules de neiges contre vos ennemis!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_framboise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Framboise</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : En vérité, la framboise n,est pas un fruit. Elle est enfait un ensemble de 40 à 80 drupéoles qui représentent chacun un petit fruit.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_coeur_0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coeur</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Quelqu'un vous a déjà dit que la violence n'arrange rien? Utilisez donc l'amour pour combattre vos adversaires!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_ballon_plage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ballon de plage</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Personne ne sait pourquoi, mais les toutous ont une terrible phobie des ballons de plage.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_frisbee_bleu₀</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frisbee bleu</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Bien qu'il prenne du temps à être lancé, ce frisbee peut toucher jusqu'à deux toutous en un seul coup!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_noix_coco_0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Noix de coco</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Heureusement que les toutous ont la tête molle. Car une noix de coco sur le coco, ça ne doit pas faire du bien!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_poireau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poireau</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : C'est pas pour rien que le détective d'Agatha Cristie s'appele Hercule Poireau. Utilisez ceci pour découvrir le point faible de tous les toutous!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_bambouzla_bleuets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bambouzla à bleuets</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Les bleuets aux OGM sont de retour dans ce rapide Bambouzla.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_mangue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mangue</t>
   </si>
   <si>
@@ -169,18 +199,27 @@
     <t xml:space="preserve">RÉGULIER : La Poké-Ball est la première balle obtenue par un dresseur. Elle est aussi la plus commune et la plus utilisée pour attraper des pokémons.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_bambouzla_framboises</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bambouzla à framboises</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Ces savoureuses framboises deviennent redoutables lorsqu'elles sont projetées en si grande quantité.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_kiwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kiwi</t>
   </si>
   <si>
     <t xml:space="preserve">RÉGULIER : Certains disent que la pelure de ce fruit ce mange. Évitez ces gens. Ils sont fous.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_basketball₀</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ballon de basket-ball</t>
   </si>
   <si>
@@ -196,25 +235,34 @@
     <t xml:space="preserve">RARE : La Great-Ball est la Poké-Ball des vrais! Les dresseurs amateurs qui parcourent la planète à la recherche de pokémons.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_bambouzla_noix_cocos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bambouzla à noix de coco</t>
   </si>
   <si>
     <t xml:space="preserve">RARE : Imaginez vous une noix de coco projeté à haute vitesse. Il y a de quoi faire peur!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_frisbee_vert₀</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frisbee vert</t>
   </si>
   <si>
     <t xml:space="preserve">RARE : Le frisbee vert peut prendre du temps à être lancé, mais il peut heureusement toucher 3 toutous d'un coup!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_tournevis_sonique₀</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tournevis sonique</t>
   </si>
   <si>
     <t xml:space="preserve">RARE : Dans son bon vieux T.A.R.D.I.S. , le Docteur Arthur n’est rien sans son tournevis sonique!</t>
   </si>
   <si>
-    <t xml:space="preserve">objet_outil_eau_benite</t>
+    <t xml:space="preserve">objet_outil_eau_benite_0</t>
   </si>
   <si>
     <t xml:space="preserve">Eau bénite</t>
@@ -223,6 +271,9 @@
     <t xml:space="preserve">RARE : Exorcizamus te omnis immundus spiritus omnis satanica potestas omnis incursio infernalis adversii omnis congregatio secta diabolica ergo draco maledicte ecclesiam tuam securi tibi facias libertate servire te rogamus audi nos.</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_frisbee_rouge₀</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frisbee rouge</t>
   </si>
   <si>
@@ -238,27 +289,10 @@
     <t xml:space="preserve">RARE : L’Ultra-Ball est Ultra, il faut être spécial et unique pour l’utiliser! Seul les meilleurs s’en servent.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bambouzla</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> à mangue</t>
-    </r>
+    <t xml:space="preserve">objet_outil_bambouzla_mangues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambouzla à mangue</t>
   </si>
   <si>
     <t xml:space="preserve">RARE : Les toutous veulent toujours plus de mangue. Donnez-en leur toute une dose avec ce Bambouzla!.</t>
@@ -273,10 +307,16 @@
     <t xml:space="preserve">LÉGENDAIRE : La Master-Ball est une Poké-Ball utilisée par les meilleurs dresseurs de pokémons, il faut être un maitre dans l'art pour l'utiliser!</t>
   </si>
   <si>
+    <t xml:space="preserve">objet_outil_bambouzla_kiwis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bambouzla à kiwi</t>
   </si>
   <si>
     <t xml:space="preserve">LÉGENDAIRE : Le fruit étrangement hyper poilu est de retour dans ce bambouzla méga puissant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objet_outil_frisbee_mauve₀</t>
   </si>
   <si>
     <t xml:space="preserve">Frisbee mauve</t>
@@ -541,7 +581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,14 +606,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -685,7 +717,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -748,10 +780,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -845,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -951,9 +979,11 @@
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>25</v>
@@ -979,16 +1009,18 @@
         <v>15.625</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>5</v>
@@ -1007,25 +1039,25 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="5" t="n">
         <f aca="false">(G5^2)/10</f>
         <v>15.625</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>45</v>
@@ -1044,14 +1076,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5" t="n">
         <f aca="false">(G6^2)/10</f>
         <v>22.5</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>30</v>
@@ -1081,14 +1113,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" s="5" t="n">
         <f aca="false">(G7^2)/10</f>
         <v>22.5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1128,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>15</v>
@@ -1118,23 +1150,25 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" s="5" t="n">
         <f aca="false">(G8^2)/10</f>
         <v>22.5</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>6</v>
@@ -1153,23 +1187,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" s="5" t="n">
         <f aca="false">(G9^2)/10</f>
         <v>22.5</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>16</v>
@@ -1188,23 +1224,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="5" t="n">
         <f aca="false">(G10^2)/10</f>
         <v>25.6</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>18</v>
@@ -1223,23 +1261,25 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="5" t="n">
         <f aca="false">(G11^2)/10</f>
         <v>32.4</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>20</v>
@@ -1258,23 +1298,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" s="5" t="n">
         <f aca="false">(G12^2)/10</f>
         <v>40</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>20</v>
@@ -1293,23 +1335,25 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" s="5" t="n">
         <f aca="false">(G13^2)/10</f>
         <v>40</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>12</v>
@@ -1328,23 +1372,25 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" s="5" t="n">
         <f aca="false">(G14^2)/10</f>
         <v>40</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>5</v>
@@ -1363,23 +1409,25 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" s="5" t="n">
         <f aca="false">(G15^2)/10</f>
         <v>62.5</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>25</v>
@@ -1398,14 +1446,14 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5" t="n">
         <f aca="false">(G16^2)/10</f>
         <v>62.5</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,10 +1461,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>30</v>
@@ -1435,23 +1483,25 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" s="5" t="n">
         <f aca="false">(G17^2)/10</f>
         <v>90</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>6</v>
@@ -1470,23 +1520,25 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" s="5" t="n">
         <f aca="false">(G18^2)/10</f>
         <v>90</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>30</v>
@@ -1505,23 +1557,25 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5" t="n">
         <f aca="false">(G19^2)/10</f>
         <v>90</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>40</v>
@@ -1540,14 +1594,14 @@
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" s="5" t="n">
         <f aca="false">(G20^2)/10</f>
         <v>160</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,10 +1609,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>40</v>
@@ -1577,23 +1631,25 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" s="5" t="n">
         <f aca="false">(G21^2)/10</f>
         <v>160</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>20</v>
@@ -1612,23 +1668,25 @@
         <v>2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" s="5" t="n">
         <f aca="false">(G22^2)/10</f>
         <v>160</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>30</v>
@@ -1647,23 +1705,25 @@
         <v>2</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" s="5" t="n">
         <f aca="false">(G23^2)/10</f>
         <v>202.5</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>10</v>
@@ -1682,25 +1742,25 @@
         <v>2</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" s="5" t="n">
         <f aca="false">(G24^2)/10</f>
         <v>250</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>40</v>
@@ -1719,23 +1779,25 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" s="5" t="n">
         <f aca="false">(G25^2)/10</f>
         <v>250</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>40</v>
@@ -1754,14 +1816,14 @@
         <v>2</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" s="5" t="n">
         <f aca="false">(G26^2)/10</f>
         <v>360</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,10 +1831,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>60</v>
@@ -1791,23 +1853,25 @@
         <v>2</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" s="5" t="n">
         <f aca="false">(G27^2)/10</f>
         <v>360</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="16" t="s">
-        <v>72</v>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>25</v>
@@ -1826,14 +1890,14 @@
         <v>2</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J28" s="5" t="n">
         <f aca="false">(G28^2)/10</f>
         <v>390.625</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,10 +1905,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>85</v>
@@ -1859,27 +1923,29 @@
         <f aca="false">(D29*F29)/E29</f>
         <v>85</v>
       </c>
-      <c r="H29" s="17" t="n">
+      <c r="H29" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" s="5" t="n">
         <f aca="false">(G29^2)/10</f>
         <v>722.5</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="C30" s="6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>30</v>
@@ -1894,27 +1960,29 @@
         <f aca="false">(D30*F30)/E30</f>
         <v>100</v>
       </c>
-      <c r="H30" s="17" t="n">
+      <c r="H30" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J30" s="5" t="n">
         <f aca="false">(G30^2)/10</f>
         <v>1000</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="C31" s="6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>50</v>
@@ -1929,18 +1997,18 @@
         <f aca="false">(D31*F31)/E31</f>
         <v>100</v>
       </c>
-      <c r="H31" s="17" t="n">
+      <c r="H31" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" s="5" t="n">
         <f aca="false">(G31^2)/10</f>
         <v>1000</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,10 +2016,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>110</v>
@@ -1966,18 +2034,18 @@
         <f aca="false">(D32*F32)/E32</f>
         <v>110</v>
       </c>
-      <c r="H32" s="17" t="n">
+      <c r="H32" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J32" s="5" t="n">
         <f aca="false">(G32^2)/10</f>
         <v>1210</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,10 +2053,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>50</v>
@@ -2003,18 +2071,18 @@
         <f aca="false">(D33*F33)/E33</f>
         <v>100</v>
       </c>
-      <c r="H33" s="17" t="n">
+      <c r="H33" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" s="5" t="n">
         <f aca="false">(G33^2)/10</f>
         <v>1000</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +2090,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>45</v>
@@ -2040,18 +2108,18 @@
         <f aca="false">(D34*F34)/E34</f>
         <v>90</v>
       </c>
-      <c r="H34" s="17" t="n">
+      <c r="H34" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J34" s="5" t="n">
         <f aca="false">(G34^2)/10</f>
         <v>810</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,10 +2127,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>20</v>
@@ -2077,18 +2145,18 @@
         <f aca="false">(D35*F35)/E35</f>
         <v>100</v>
       </c>
-      <c r="H35" s="17" t="n">
+      <c r="H35" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J35" s="5" t="n">
         <f aca="false">(G35^2)/10</f>
         <v>1000</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,10 +2164,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>40</v>
@@ -2114,18 +2182,18 @@
         <f aca="false">(D36*F36)/E36</f>
         <v>80</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H36" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J36" s="5" t="n">
         <f aca="false">(G36^2)/10</f>
         <v>640</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,10 +2201,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>40</v>
@@ -2151,18 +2219,18 @@
         <f aca="false">(D37*F37)/E37</f>
         <v>80</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H37" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J37" s="5" t="n">
         <f aca="false">(G37^2)/10</f>
         <v>640</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2238,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>35</v>
@@ -2192,14 +2260,14 @@
         <v>2</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J38" s="5" t="n">
         <f aca="false">(G38^2)/10</f>
         <v>490</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,10 +2275,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>35</v>
@@ -2229,14 +2297,14 @@
         <v>2</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" s="5" t="n">
         <f aca="false">(G39^2)/10</f>
         <v>490</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,10 +2312,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>25</v>
@@ -2266,14 +2334,14 @@
         <v>2</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J40" s="5" t="n">
         <f aca="false">(G40^2)/10</f>
         <v>250</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,10 +2349,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>25</v>
@@ -2303,14 +2371,14 @@
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J41" s="5" t="n">
         <f aca="false">(G41^2)/10</f>
         <v>250</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,10 +2386,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>25</v>
@@ -2340,14 +2408,14 @@
         <v>2</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J42" s="5" t="n">
         <f aca="false">(G42^2)/10</f>
         <v>250</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2423,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>50</v>
@@ -2377,14 +2445,14 @@
         <v>2</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J43" s="5" t="n">
         <f aca="false">(G43^2)/10</f>
         <v>250</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,10 +2460,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>8</v>
@@ -2414,14 +2482,14 @@
         <v>2</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J44" s="5" t="n">
         <f aca="false">(G44^2)/10</f>
         <v>160</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,10 +2497,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>8</v>
@@ -2451,14 +2519,14 @@
         <v>2</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J45" s="5" t="n">
         <f aca="false">(G45^2)/10</f>
         <v>160</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,10 +2534,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>25</v>
@@ -2488,14 +2556,14 @@
         <v>2</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J46" s="5" t="n">
         <f aca="false">(G46^2)/10</f>
         <v>250</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,10 +2571,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>40</v>
@@ -2532,7 +2600,7 @@
         <v>160</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,10 +2608,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>35</v>
@@ -2569,7 +2637,7 @@
         <v>122.5</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,10 +2645,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>35</v>
@@ -2599,14 +2667,14 @@
         <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" s="5" t="n">
         <f aca="false">(G49^2)/10</f>
         <v>122.5</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>134</v>
+      <c r="K49" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2682,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>35</v>
@@ -2636,14 +2704,14 @@
         <v>2</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J50" s="5" t="n">
         <f aca="false">(G50^2)/10</f>
         <v>122.5</v>
       </c>
-      <c r="K50" s="18" t="s">
-        <v>137</v>
+      <c r="K50" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2719,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>35</v>
@@ -2673,14 +2741,14 @@
         <v>2</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J51" s="5" t="n">
         <f aca="false">(G51^2)/10</f>
         <v>122.5</v>
       </c>
-      <c r="K51" s="18" t="s">
-        <v>140</v>
+      <c r="K51" s="17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,10 +2756,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>30</v>
@@ -2710,14 +2778,14 @@
         <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J52" s="5" t="n">
         <f aca="false">(G52^2)/10</f>
         <v>90</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,10 +2793,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>30</v>
@@ -2747,14 +2815,14 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J53" s="5" t="n">
         <f aca="false">(G53^2)/10</f>
         <v>90</v>
       </c>
-      <c r="K53" s="18" t="s">
-        <v>146</v>
+      <c r="K53" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2830,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>25</v>
@@ -2784,14 +2852,14 @@
         <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J54" s="5" t="n">
         <f aca="false">(G54^2)/10</f>
         <v>62.5</v>
       </c>
-      <c r="K54" s="18" t="s">
-        <v>146</v>
+      <c r="K54" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,10 +2867,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>25</v>
@@ -2821,14 +2889,14 @@
         <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J55" s="5" t="n">
         <f aca="false">(G55^2)/10</f>
         <v>62.5</v>
       </c>
-      <c r="K55" s="18" t="s">
-        <v>146</v>
+      <c r="K55" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2904,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>25</v>
@@ -2865,7 +2933,7 @@
         <v>62.5</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,10 +2941,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>30</v>
@@ -2902,7 +2970,7 @@
         <v>90</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,10 +2978,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>20</v>
@@ -2932,14 +3000,14 @@
         <v>1</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J58" s="5" t="n">
         <f aca="false">(G58^2)/10</f>
         <v>40</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,10 +3015,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>20</v>
@@ -2969,14 +3037,14 @@
         <v>1</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J59" s="5" t="n">
         <f aca="false">(G59^2)/10</f>
         <v>40</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,10 +3052,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>15</v>
@@ -3013,19 +3081,19 @@
         <v>22.5</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
-      <c r="H61" s="19"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
-      <c r="H62" s="19"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="9"/>
@@ -3039,11 +3107,11 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="19" t="e">
+      <c r="G63" s="18" t="e">
         <f aca="false">(D63*F63)/E63</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="19"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="9"/>
@@ -3057,11 +3125,11 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="19" t="e">
+      <c r="G64" s="18" t="e">
         <f aca="false">(D64*F64)/E64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="19"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="9"/>
@@ -3075,11 +3143,11 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="19" t="e">
+      <c r="G65" s="18" t="e">
         <f aca="false">(D65*F65)/E65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="19"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="9"/>
@@ -3093,11 +3161,11 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="19" t="e">
+      <c r="G66" s="18" t="e">
         <f aca="false">(D66*F66)/E66</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="19"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="9"/>
@@ -3111,11 +3179,11 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="19" t="e">
+      <c r="G67" s="18" t="e">
         <f aca="false">(D67*F67)/E67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="19"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="9"/>
@@ -3129,11 +3197,11 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="19" t="e">
+      <c r="G68" s="18" t="e">
         <f aca="false">(D68*F68)/E68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="19"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="9"/>
@@ -3147,11 +3215,11 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="19" t="e">
+      <c r="G69" s="18" t="e">
         <f aca="false">(D69*F69)/E69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="19"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="9"/>
@@ -3165,11 +3233,11 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="19" t="e">
+      <c r="G70" s="18" t="e">
         <f aca="false">(D70*F70)/E70</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="19"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="9"/>
@@ -3183,11 +3251,11 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="19" t="e">
+      <c r="G71" s="18" t="e">
         <f aca="false">(D71*F71)/E71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="19"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="9"/>
@@ -3201,11 +3269,11 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="19" t="e">
+      <c r="G72" s="18" t="e">
         <f aca="false">(D72*F72)/E72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="19"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="9"/>
@@ -3219,11 +3287,11 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="19" t="e">
+      <c r="G73" s="18" t="e">
         <f aca="false">(D73*F73)/E73</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="19"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="9"/>
@@ -3237,11 +3305,11 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="19" t="e">
+      <c r="G74" s="18" t="e">
         <f aca="false">(D74*F74)/E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="19"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="9"/>
@@ -3255,11 +3323,11 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="19" t="e">
+      <c r="G75" s="18" t="e">
         <f aca="false">(D75*F75)/E75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="19"/>
+      <c r="H75" s="18"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="9"/>
@@ -3273,11 +3341,11 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="19" t="e">
+      <c r="G76" s="18" t="e">
         <f aca="false">(D76*F76)/E76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="19"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="9"/>
@@ -3291,11 +3359,11 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="19" t="e">
+      <c r="G77" s="18" t="e">
         <f aca="false">(D77*F77)/E77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="19"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="9"/>
@@ -3309,11 +3377,11 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="19" t="e">
+      <c r="G78" s="18" t="e">
         <f aca="false">(D78*F78)/E78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="19"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="9"/>
@@ -3327,11 +3395,11 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="19" t="e">
+      <c r="G79" s="18" t="e">
         <f aca="false">(D79*F79)/E79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="H79" s="18"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="9"/>
@@ -3345,11 +3413,11 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="19" t="e">
+      <c r="G80" s="18" t="e">
         <f aca="false">(D80*F80)/E80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="19"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="9"/>
@@ -3363,11 +3431,11 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="19" t="e">
+      <c r="G81" s="18" t="e">
         <f aca="false">(D81*F81)/E81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="19"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="9"/>
@@ -3381,11 +3449,11 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="19" t="e">
+      <c r="G82" s="18" t="e">
         <f aca="false">(D82*F82)/E82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="19"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="9"/>
@@ -3399,11 +3467,11 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="19" t="e">
+      <c r="G83" s="18" t="e">
         <f aca="false">(D83*F83)/E83</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="9"/>
@@ -3417,11 +3485,11 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="19" t="e">
+      <c r="G84" s="18" t="e">
         <f aca="false">(D84*F84)/E84</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="19"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="9"/>
@@ -3435,11 +3503,11 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="19" t="e">
+      <c r="G85" s="18" t="e">
         <f aca="false">(D85*F85)/E85</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="19"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="9"/>
@@ -3453,11 +3521,11 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="19" t="e">
+      <c r="G86" s="18" t="e">
         <f aca="false">(D86*F86)/E86</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="19"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="9"/>
@@ -3471,11 +3539,11 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="19" t="e">
+      <c r="G87" s="18" t="e">
         <f aca="false">(D87*F87)/E87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="19"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="9"/>
@@ -3489,11 +3557,11 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="19" t="e">
+      <c r="G88" s="18" t="e">
         <f aca="false">(D88*F88)/E88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="19"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="9"/>
@@ -3507,11 +3575,11 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="19" t="e">
+      <c r="G89" s="18" t="e">
         <f aca="false">(D89*F89)/E89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="19"/>
+      <c r="H89" s="18"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="9"/>
@@ -3525,11 +3593,11 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="19" t="e">
+      <c r="G90" s="18" t="e">
         <f aca="false">(D90*F90)/E90</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="19"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="9"/>
@@ -3543,11 +3611,11 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="19" t="e">
+      <c r="G91" s="18" t="e">
         <f aca="false">(D91*F91)/E91</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="19"/>
+      <c r="H91" s="18"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="9"/>
@@ -3561,11 +3629,11 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="19" t="e">
+      <c r="G92" s="18" t="e">
         <f aca="false">(D92*F92)/E92</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="19"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="9"/>
@@ -3579,11 +3647,11 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="19" t="e">
+      <c r="G93" s="18" t="e">
         <f aca="false">(D93*F93)/E93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="19"/>
+      <c r="H93" s="18"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="9"/>
@@ -3597,11 +3665,11 @@
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="19" t="e">
+      <c r="G94" s="18" t="e">
         <f aca="false">(D94*F94)/E94</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="19"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="9"/>
@@ -3615,11 +3683,11 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="19" t="e">
+      <c r="G95" s="18" t="e">
         <f aca="false">(D95*F95)/E95</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="19"/>
+      <c r="H95" s="18"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="9"/>
@@ -3633,11 +3701,11 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="19" t="e">
+      <c r="G96" s="18" t="e">
         <f aca="false">(D96*F96)/E96</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H96" s="19"/>
+      <c r="H96" s="18"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="9"/>
@@ -3651,11 +3719,11 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="19" t="e">
+      <c r="G97" s="18" t="e">
         <f aca="false">(D97*F97)/E97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H97" s="19"/>
+      <c r="H97" s="18"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="9"/>
@@ -3669,11 +3737,11 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="19" t="e">
+      <c r="G98" s="18" t="e">
         <f aca="false">(D98*F98)/E98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="19"/>
+      <c r="H98" s="18"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="9"/>
@@ -3687,11 +3755,11 @@
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="19" t="e">
+      <c r="G99" s="18" t="e">
         <f aca="false">(D99*F99)/E99</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H99" s="19"/>
+      <c r="H99" s="18"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="9"/>
@@ -3705,11 +3773,11 @@
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="19" t="e">
+      <c r="G100" s="18" t="e">
         <f aca="false">(D100*F100)/E100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H100" s="19"/>
+      <c r="H100" s="18"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="9"/>
@@ -3723,11 +3791,11 @@
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="19" t="e">
+      <c r="G101" s="18" t="e">
         <f aca="false">(D101*F101)/E101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H101" s="19"/>
+      <c r="H101" s="18"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="9"/>
@@ -3741,11 +3809,11 @@
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="19" t="e">
+      <c r="G102" s="18" t="e">
         <f aca="false">(D102*F102)/E102</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H102" s="19"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="9"/>
@@ -3759,11 +3827,11 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="19" t="e">
+      <c r="G103" s="18" t="e">
         <f aca="false">(D103*F103)/E103</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H103" s="19"/>
+      <c r="H103" s="18"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="9"/>
@@ -3777,11 +3845,11 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="19" t="e">
+      <c r="G104" s="18" t="e">
         <f aca="false">(D104*F104)/E104</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H104" s="19"/>
+      <c r="H104" s="18"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="9"/>
@@ -3795,11 +3863,11 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="19" t="e">
+      <c r="G105" s="18" t="e">
         <f aca="false">(D105*F105)/E105</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H105" s="19"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="9"/>
@@ -3813,11 +3881,11 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="19" t="e">
+      <c r="G106" s="18" t="e">
         <f aca="false">(D106*F106)/E106</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H106" s="19"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="9"/>
@@ -3831,11 +3899,11 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="19" t="e">
+      <c r="G107" s="18" t="e">
         <f aca="false">(D107*F107)/E107</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H107" s="19"/>
+      <c r="H107" s="18"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="9"/>
@@ -3849,11 +3917,11 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="19" t="e">
+      <c r="G108" s="18" t="e">
         <f aca="false">(D108*F108)/E108</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H108" s="19"/>
+      <c r="H108" s="18"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="9"/>
@@ -3867,11 +3935,11 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="19" t="e">
+      <c r="G109" s="18" t="e">
         <f aca="false">(D109*F109)/E109</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H109" s="19"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="9"/>
@@ -3885,11 +3953,11 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="19" t="e">
+      <c r="G110" s="18" t="e">
         <f aca="false">(D110*F110)/E110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H110" s="19"/>
+      <c r="H110" s="18"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="9"/>
@@ -3903,11 +3971,11 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="19" t="e">
+      <c r="G111" s="18" t="e">
         <f aca="false">(D111*F111)/E111</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H111" s="19"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="9"/>
@@ -3921,11 +3989,11 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="19" t="e">
+      <c r="G112" s="18" t="e">
         <f aca="false">(D112*F112)/E112</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H112" s="19"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="9"/>
@@ -3939,11 +4007,11 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="19" t="e">
+      <c r="G113" s="18" t="e">
         <f aca="false">(D113*F113)/E113</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H113" s="19"/>
+      <c r="H113" s="18"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="9"/>
@@ -3957,11 +4025,11 @@
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="19" t="e">
+      <c r="G114" s="18" t="e">
         <f aca="false">(D114*F114)/E114</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H114" s="19"/>
+      <c r="H114" s="18"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="9"/>
@@ -3975,11 +4043,11 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="19" t="e">
+      <c r="G115" s="18" t="e">
         <f aca="false">(D115*F115)/E115</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H115" s="19"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="9"/>
@@ -3993,11 +4061,11 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="19" t="e">
+      <c r="G116" s="18" t="e">
         <f aca="false">(D116*F116)/E116</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H116" s="19"/>
+      <c r="H116" s="18"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="9"/>
@@ -4011,11 +4079,11 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="19" t="e">
+      <c r="G117" s="18" t="e">
         <f aca="false">(D117*F117)/E117</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H117" s="19"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="9"/>
@@ -4029,11 +4097,11 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="19" t="e">
+      <c r="G118" s="18" t="e">
         <f aca="false">(D118*F118)/E118</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H118" s="19"/>
+      <c r="H118" s="18"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="9"/>
@@ -4047,11 +4115,11 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="19" t="e">
+      <c r="G119" s="18" t="e">
         <f aca="false">(D119*F119)/E119</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H119" s="19"/>
+      <c r="H119" s="18"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="9"/>
@@ -4065,11 +4133,11 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="19" t="e">
+      <c r="G120" s="18" t="e">
         <f aca="false">(D120*F120)/E120</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H120" s="19"/>
+      <c r="H120" s="18"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="9"/>
@@ -4081,11 +4149,11 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="19" t="e">
+      <c r="G121" s="18" t="e">
         <f aca="false">(D121*F121)/E121</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H121" s="19"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="9"/>
@@ -4097,11 +4165,11 @@
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="19" t="e">
+      <c r="G122" s="18" t="e">
         <f aca="false">(D122*F122)/E122</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H122" s="19"/>
+      <c r="H122" s="18"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="9"/>
@@ -4113,11 +4181,11 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="19" t="e">
+      <c r="G123" s="18" t="e">
         <f aca="false">(D123*F123)/E123</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H123" s="19"/>
+      <c r="H123" s="18"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="9"/>
@@ -4129,11 +4197,11 @@
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="19" t="e">
+      <c r="G124" s="18" t="e">
         <f aca="false">(D124*F124)/E124</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H124" s="19"/>
+      <c r="H124" s="18"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="9"/>
@@ -4145,11 +4213,11 @@
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="19" t="e">
+      <c r="G125" s="18" t="e">
         <f aca="false">(D125*F125)/E125</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H125" s="19"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="9"/>
@@ -4161,11 +4229,11 @@
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="19" t="e">
+      <c r="G126" s="18" t="e">
         <f aca="false">(D126*F126)/E126</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H126" s="19"/>
+      <c r="H126" s="18"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="9"/>
@@ -4177,11 +4245,11 @@
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="19" t="e">
+      <c r="G127" s="18" t="e">
         <f aca="false">(D127*F127)/E127</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H127" s="19"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="9"/>
@@ -4193,11 +4261,11 @@
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="19" t="e">
+      <c r="G128" s="18" t="e">
         <f aca="false">(D128*F128)/E128</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H128" s="19"/>
+      <c r="H128" s="18"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="9"/>
@@ -4209,11 +4277,11 @@
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="19" t="e">
+      <c r="G129" s="18" t="e">
         <f aca="false">(D129*F129)/E129</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H129" s="19"/>
+      <c r="H129" s="18"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="9"/>
@@ -4225,11 +4293,11 @@
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="19" t="e">
+      <c r="G130" s="18" t="e">
         <f aca="false">(D130*F130)/E130</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H130" s="19"/>
+      <c r="H130" s="18"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="9"/>
@@ -4241,11 +4309,11 @@
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="19" t="e">
+      <c r="G131" s="18" t="e">
         <f aca="false">(D131*F131)/E131</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H131" s="19"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="9"/>
@@ -4257,11 +4325,11 @@
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="19" t="e">
+      <c r="G132" s="18" t="e">
         <f aca="false">(D132*F132)/E132</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H132" s="19"/>
+      <c r="H132" s="18"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="9"/>
@@ -4273,11 +4341,11 @@
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="19" t="e">
+      <c r="G133" s="18" t="e">
         <f aca="false">(D133*F133)/E133</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H133" s="19"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="9"/>
@@ -4289,11 +4357,11 @@
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="19" t="e">
+      <c r="G134" s="18" t="e">
         <f aca="false">(D134*F134)/E134</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H134" s="19"/>
+      <c r="H134" s="18"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="9"/>
@@ -4305,11 +4373,11 @@
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="19" t="e">
+      <c r="G135" s="18" t="e">
         <f aca="false">(D135*F135)/E135</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H135" s="19"/>
+      <c r="H135" s="18"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="9"/>
@@ -4321,11 +4389,11 @@
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="19" t="e">
+      <c r="G136" s="18" t="e">
         <f aca="false">(D136*F136)/E136</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H136" s="19"/>
+      <c r="H136" s="18"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="9"/>
@@ -4337,11 +4405,11 @@
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="19" t="e">
+      <c r="G137" s="18" t="e">
         <f aca="false">(D137*F137)/E137</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H137" s="19"/>
+      <c r="H137" s="18"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="9"/>
@@ -4353,11 +4421,11 @@
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="19" t="e">
+      <c r="G138" s="18" t="e">
         <f aca="false">(D138*F138)/E138</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H138" s="19"/>
+      <c r="H138" s="18"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="9"/>
@@ -4369,11 +4437,11 @@
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="19" t="e">
+      <c r="G139" s="18" t="e">
         <f aca="false">(D139*F139)/E139</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H139" s="19"/>
+      <c r="H139" s="18"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="9"/>
@@ -4385,11 +4453,11 @@
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="19" t="e">
+      <c r="G140" s="18" t="e">
         <f aca="false">(D140*F140)/E140</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H140" s="19"/>
+      <c r="H140" s="18"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="9"/>
@@ -4401,11 +4469,11 @@
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="19" t="e">
+      <c r="G141" s="18" t="e">
         <f aca="false">(D141*F141)/E141</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H141" s="19"/>
+      <c r="H141" s="18"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="9"/>
@@ -4417,11 +4485,11 @@
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="19" t="e">
+      <c r="G142" s="18" t="e">
         <f aca="false">(D142*F142)/E142</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H142" s="19"/>
+      <c r="H142" s="18"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="9"/>
@@ -4433,11 +4501,11 @@
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="19" t="e">
+      <c r="G143" s="18" t="e">
         <f aca="false">(D143*F143)/E143</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H143" s="19"/>
+      <c r="H143" s="18"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="9"/>
@@ -4449,11 +4517,11 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="19" t="e">
+      <c r="G144" s="18" t="e">
         <f aca="false">(D144*F144)/E144</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H144" s="19"/>
+      <c r="H144" s="18"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="9"/>
@@ -4465,11 +4533,11 @@
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="19" t="e">
+      <c r="G145" s="18" t="e">
         <f aca="false">(D145*F145)/E145</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H145" s="19"/>
+      <c r="H145" s="18"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="9"/>
@@ -4481,11 +4549,11 @@
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="19" t="e">
+      <c r="G146" s="18" t="e">
         <f aca="false">(D146*F146)/E146</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H146" s="19"/>
+      <c r="H146" s="18"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="9"/>
@@ -4497,11 +4565,11 @@
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
-      <c r="G147" s="19" t="e">
+      <c r="G147" s="18" t="e">
         <f aca="false">(D147*F147)/E147</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H147" s="19"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="9"/>
@@ -4513,11 +4581,11 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="19" t="e">
+      <c r="G148" s="18" t="e">
         <f aca="false">(D148*F148)/E148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H148" s="19"/>
+      <c r="H148" s="18"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="9"/>
@@ -4529,11 +4597,11 @@
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="19" t="e">
+      <c r="G149" s="18" t="e">
         <f aca="false">(D149*F149)/E149</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H149" s="19"/>
+      <c r="H149" s="18"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="9"/>
@@ -4545,11 +4613,11 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="19" t="e">
+      <c r="G150" s="18" t="e">
         <f aca="false">(D150*F150)/E150</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H150" s="19"/>
+      <c r="H150" s="18"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="9"/>
@@ -4561,11 +4629,11 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
-      <c r="G151" s="19" t="e">
+      <c r="G151" s="18" t="e">
         <f aca="false">(D151*F151)/E151</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H151" s="19"/>
+      <c r="H151" s="18"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="9"/>
@@ -4577,11 +4645,11 @@
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="19" t="e">
+      <c r="G152" s="18" t="e">
         <f aca="false">(D152*F152)/E152</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H152" s="19"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="9"/>
@@ -4593,11 +4661,11 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
-      <c r="G153" s="19" t="e">
+      <c r="G153" s="18" t="e">
         <f aca="false">(D153*F153)/E153</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H153" s="19"/>
+      <c r="H153" s="18"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="9"/>
@@ -4609,11 +4677,11 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="19" t="e">
+      <c r="G154" s="18" t="e">
         <f aca="false">(D154*F154)/E154</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H154" s="19"/>
+      <c r="H154" s="18"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="9"/>
@@ -4625,11 +4693,11 @@
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
-      <c r="G155" s="19" t="e">
+      <c r="G155" s="18" t="e">
         <f aca="false">(D155*F155)/E155</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H155" s="19"/>
+      <c r="H155" s="18"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="9"/>
@@ -4641,11 +4709,11 @@
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
-      <c r="G156" s="19" t="e">
+      <c r="G156" s="18" t="e">
         <f aca="false">(D156*F156)/E156</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H156" s="19"/>
+      <c r="H156" s="18"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="9"/>
@@ -4657,11 +4725,11 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="19" t="e">
+      <c r="G157" s="18" t="e">
         <f aca="false">(D157*F157)/E157</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H157" s="19"/>
+      <c r="H157" s="18"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="9"/>
@@ -4673,11 +4741,11 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="19" t="e">
+      <c r="G158" s="18" t="e">
         <f aca="false">(D158*F158)/E158</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H158" s="19"/>
+      <c r="H158" s="18"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="9"/>
@@ -4689,11 +4757,11 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="19" t="e">
+      <c r="G159" s="18" t="e">
         <f aca="false">(D159*F159)/E159</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H159" s="19"/>
+      <c r="H159" s="18"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="9"/>
@@ -4705,11 +4773,11 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="19" t="e">
+      <c r="G160" s="18" t="e">
         <f aca="false">(D160*F160)/E160</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H160" s="19"/>
+      <c r="H160" s="18"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="9"/>
@@ -4721,11 +4789,11 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="19" t="e">
+      <c r="G161" s="18" t="e">
         <f aca="false">(D161*F161)/E161</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H161" s="19"/>
+      <c r="H161" s="18"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="9"/>
@@ -4737,11 +4805,11 @@
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
-      <c r="G162" s="19" t="e">
+      <c r="G162" s="18" t="e">
         <f aca="false">(D162*F162)/E162</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H162" s="19"/>
+      <c r="H162" s="18"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="9"/>
@@ -4753,11 +4821,11 @@
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="19" t="e">
+      <c r="G163" s="18" t="e">
         <f aca="false">(D163*F163)/E163</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H163" s="19"/>
+      <c r="H163" s="18"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="9"/>
@@ -4769,11 +4837,11 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="19" t="e">
+      <c r="G164" s="18" t="e">
         <f aca="false">(D164*F164)/E164</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H164" s="19"/>
+      <c r="H164" s="18"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="9"/>
@@ -4785,11 +4853,11 @@
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="19" t="e">
+      <c r="G165" s="18" t="e">
         <f aca="false">(D165*F165)/E165</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H165" s="19"/>
+      <c r="H165" s="18"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="9"/>
@@ -4801,11 +4869,11 @@
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="19" t="e">
+      <c r="G166" s="18" t="e">
         <f aca="false">(D166*F166)/E166</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H166" s="19"/>
+      <c r="H166" s="18"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="9"/>
@@ -4817,11 +4885,11 @@
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="19" t="e">
+      <c r="G167" s="18" t="e">
         <f aca="false">(D167*F167)/E167</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H167" s="19"/>
+      <c r="H167" s="18"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="9"/>
@@ -4833,11 +4901,11 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="19" t="e">
+      <c r="G168" s="18" t="e">
         <f aca="false">(D168*F168)/E168</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H168" s="19"/>
+      <c r="H168" s="18"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="9"/>
@@ -4849,11 +4917,11 @@
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
-      <c r="G169" s="19" t="e">
+      <c r="G169" s="18" t="e">
         <f aca="false">(D169*F169)/E169</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H169" s="19"/>
+      <c r="H169" s="18"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="9"/>
@@ -4865,11 +4933,11 @@
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="19" t="e">
+      <c r="G170" s="18" t="e">
         <f aca="false">(D170*F170)/E170</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H170" s="19"/>
+      <c r="H170" s="18"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="9"/>
@@ -4881,11 +4949,11 @@
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="19" t="e">
+      <c r="G171" s="18" t="e">
         <f aca="false">(D171*F171)/E171</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H171" s="19"/>
+      <c r="H171" s="18"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="9"/>
@@ -4897,11 +4965,11 @@
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="19" t="e">
+      <c r="G172" s="18" t="e">
         <f aca="false">(D172*F172)/E172</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H172" s="19"/>
+      <c r="H172" s="18"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="9"/>
@@ -4913,11 +4981,11 @@
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="19" t="e">
+      <c r="G173" s="18" t="e">
         <f aca="false">(D173*F173)/E173</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H173" s="19"/>
+      <c r="H173" s="18"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="9"/>
@@ -4929,11 +4997,11 @@
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="19" t="e">
+      <c r="G174" s="18" t="e">
         <f aca="false">(D174*F174)/E174</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H174" s="19"/>
+      <c r="H174" s="18"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="9"/>
@@ -4945,11 +5013,11 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="19" t="e">
+      <c r="G175" s="18" t="e">
         <f aca="false">(D175*F175)/E175</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H175" s="19"/>
+      <c r="H175" s="18"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="9"/>
@@ -4961,11 +5029,11 @@
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="19" t="e">
+      <c r="G176" s="18" t="e">
         <f aca="false">(D176*F176)/E176</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H176" s="19"/>
+      <c r="H176" s="18"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="9"/>
@@ -4977,11 +5045,11 @@
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="19" t="e">
+      <c r="G177" s="18" t="e">
         <f aca="false">(D177*F177)/E177</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H177" s="19"/>
+      <c r="H177" s="18"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="9"/>
@@ -4993,11 +5061,11 @@
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="19" t="e">
+      <c r="G178" s="18" t="e">
         <f aca="false">(D178*F178)/E178</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H178" s="19"/>
+      <c r="H178" s="18"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="9"/>
@@ -5009,11 +5077,11 @@
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="19" t="e">
+      <c r="G179" s="18" t="e">
         <f aca="false">(D179*F179)/E179</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H179" s="19"/>
+      <c r="H179" s="18"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="9"/>
@@ -5025,11 +5093,11 @@
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
-      <c r="G180" s="19" t="e">
+      <c r="G180" s="18" t="e">
         <f aca="false">(D180*F180)/E180</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H180" s="19"/>
+      <c r="H180" s="18"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="9"/>
@@ -5041,11 +5109,11 @@
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="19" t="e">
+      <c r="G181" s="18" t="e">
         <f aca="false">(D181*F181)/E181</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H181" s="19"/>
+      <c r="H181" s="18"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="9"/>
@@ -5057,11 +5125,11 @@
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
-      <c r="G182" s="19" t="e">
+      <c r="G182" s="18" t="e">
         <f aca="false">(D182*F182)/E182</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H182" s="19"/>
+      <c r="H182" s="18"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="9"/>
@@ -5073,11 +5141,11 @@
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
-      <c r="G183" s="19" t="e">
+      <c r="G183" s="18" t="e">
         <f aca="false">(D183*F183)/E183</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H183" s="19"/>
+      <c r="H183" s="18"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="9"/>
@@ -5089,11 +5157,11 @@
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
-      <c r="G184" s="19" t="e">
+      <c r="G184" s="18" t="e">
         <f aca="false">(D184*F184)/E184</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H184" s="19"/>
+      <c r="H184" s="18"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="9"/>
@@ -5105,11 +5173,11 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
-      <c r="G185" s="19" t="e">
+      <c r="G185" s="18" t="e">
         <f aca="false">(D185*F185)/E185</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H185" s="19"/>
+      <c r="H185" s="18"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="9"/>
@@ -5121,11 +5189,11 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="19" t="e">
+      <c r="G186" s="18" t="e">
         <f aca="false">(D186*F186)/E186</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H186" s="19"/>
+      <c r="H186" s="18"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="9"/>
@@ -5137,11 +5205,11 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
-      <c r="G187" s="19" t="e">
+      <c r="G187" s="18" t="e">
         <f aca="false">(D187*F187)/E187</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H187" s="19"/>
+      <c r="H187" s="18"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="9"/>
@@ -5153,11 +5221,11 @@
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
-      <c r="G188" s="19" t="e">
+      <c r="G188" s="18" t="e">
         <f aca="false">(D188*F188)/E188</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H188" s="19"/>
+      <c r="H188" s="18"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="9"/>
@@ -5169,11 +5237,11 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
-      <c r="G189" s="19" t="e">
+      <c r="G189" s="18" t="e">
         <f aca="false">(D189*F189)/E189</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H189" s="19"/>
+      <c r="H189" s="18"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="9"/>
@@ -5185,11 +5253,11 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="19" t="e">
+      <c r="G190" s="18" t="e">
         <f aca="false">(D190*F190)/E190</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H190" s="19"/>
+      <c r="H190" s="18"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="9"/>
@@ -5201,11 +5269,11 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="19" t="e">
+      <c r="G191" s="18" t="e">
         <f aca="false">(D191*F191)/E191</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H191" s="19"/>
+      <c r="H191" s="18"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="9"/>
@@ -5217,11 +5285,11 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
-      <c r="G192" s="19" t="e">
+      <c r="G192" s="18" t="e">
         <f aca="false">(D192*F192)/E192</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H192" s="19"/>
+      <c r="H192" s="18"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="9"/>
@@ -5233,11 +5301,11 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="19" t="e">
+      <c r="G193" s="18" t="e">
         <f aca="false">(D193*F193)/E193</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H193" s="19"/>
+      <c r="H193" s="18"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="9"/>
@@ -5249,11 +5317,11 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
-      <c r="G194" s="19" t="e">
+      <c r="G194" s="18" t="e">
         <f aca="false">(D194*F194)/E194</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H194" s="19"/>
+      <c r="H194" s="18"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="9"/>
@@ -5265,11 +5333,11 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="19" t="e">
+      <c r="G195" s="18" t="e">
         <f aca="false">(D195*F195)/E195</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H195" s="19"/>
+      <c r="H195" s="18"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="9"/>
@@ -5281,11 +5349,11 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
-      <c r="G196" s="19" t="e">
+      <c r="G196" s="18" t="e">
         <f aca="false">(D196*F196)/E196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H196" s="19"/>
+      <c r="H196" s="18"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="9"/>
@@ -5297,11 +5365,11 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="19" t="e">
+      <c r="G197" s="18" t="e">
         <f aca="false">(D197*F197)/E197</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H197" s="19"/>
+      <c r="H197" s="18"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="9"/>
@@ -5313,11 +5381,11 @@
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
-      <c r="G198" s="19" t="e">
+      <c r="G198" s="18" t="e">
         <f aca="false">(D198*F198)/E198</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H198" s="19"/>
+      <c r="H198" s="18"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="9"/>
@@ -5329,11 +5397,11 @@
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
-      <c r="G199" s="19" t="e">
+      <c r="G199" s="18" t="e">
         <f aca="false">(D199*F199)/E199</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H199" s="19"/>
+      <c r="H199" s="18"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="9"/>
@@ -5345,11 +5413,11 @@
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="19" t="e">
+      <c r="G200" s="18" t="e">
         <f aca="false">(D200*F200)/E200</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H200" s="19"/>
+      <c r="H200" s="18"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="9"/>
@@ -5361,11 +5429,11 @@
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="19" t="e">
+      <c r="G201" s="18" t="e">
         <f aca="false">(D201*F201)/E201</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H201" s="19"/>
+      <c r="H201" s="18"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="9"/>
@@ -5377,11 +5445,11 @@
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
-      <c r="G202" s="19" t="e">
+      <c r="G202" s="18" t="e">
         <f aca="false">(D202*F202)/E202</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H202" s="19"/>
+      <c r="H202" s="18"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="9"/>

--- a/liste_outils.xlsx
+++ b/liste_outils.xlsx
@@ -91,6 +91,24 @@
     <t xml:space="preserve">RÉGULIER : Ces bleuets géants sont tant remplis d'OGM, de pesticides qu'ils seraient responsables de la hausse de popularité du bio chez les toutous.</t>
   </si>
   <si>
+    <t xml:space="preserve">balle12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉGULIER : Aliment #1 des lapins, les toutous vont sans aucun doute l'apprécier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Bien chaudes et croustillante, elle deviendront le régal de tous les toutous de ce monde.</t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_seau_deau_0</t>
   </si>
   <si>
@@ -172,6 +190,54 @@
     <t xml:space="preserve">RÉGULIER : C'est pas pour rien que le détective d'Agatha Cristie s'appele Hercule Poireau. Utilisez ceci pour découvrir le point faible de tous les toutous!</t>
   </si>
   <si>
+    <t xml:space="preserve">balle10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉGULIER : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boule de crème-glacée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉGULIER : Saviez-vous qu'un américain moyen consomme environ 23 litres de crème glacée par année? Il y a dequoi rendre jaloux ces gourmants toutous!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Rien de mieux que du bon bacon pour se graisser les artères.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jus de pommes</t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_bambouzla_bleuets</t>
   </si>
   <si>
@@ -217,6 +283,63 @@
     <t xml:space="preserve">RÉGULIER : Certains disent que la pelure de ce fruit ce mange. Évitez ces gens. Ils sont fous.</t>
   </si>
   <si>
+    <t xml:space="preserve">balle13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbotine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jus d'orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉGULIER : Ce fruit trop acide pourrait donner des maux d'estomac aux toutous. Par contre, ils prioriseront toujours le plaisisr de leurs papilles gustatives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : La spécialité de italienne contient fromage, pepperoni, sauce tomate et poivrons. Dequoi faire saliver tous vos adversaires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à cerises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Ces petits fruits deviennent très caloriques lorsqu'elles sont projectilisées à haute vitesse par ce projectilateur!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à Pepsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Bien que les toutous préfèrent secrètement le Coca Cola, ils ne diront certainement pas non à une bonne dose de Pepsi!</t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_basketball₀</t>
   </si>
   <si>
@@ -244,6 +367,15 @@
     <t xml:space="preserve">RARE : Imaginez vous une noix de coco projeté à haute vitesse. Il y a de quoi faire peur!</t>
   </si>
   <si>
+    <t xml:space="preserve">outil11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à baies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Presque inoffensives individuellement, les baies deviennent redoutables en grand nombre!</t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_frisbee_vert₀</t>
   </si>
   <si>
@@ -271,6 +403,69 @@
     <t xml:space="preserve">RARE : Exorcizamus te omnis immundus spiritus omnis satanica potestas omnis incursio infernalis adversii omnis congregatio secta diabolica ergo draco maledicte ecclesiam tuam securi tibi facias libertate servire te rogamus audi nos.</t>
   </si>
   <si>
+    <t xml:space="preserve">outil01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à bacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÉGENDAIRE : Il y a quelque chose dans ce canon qui rend cette viande affreusement appétissante!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à crème-glacée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÉGENDAIRE : La créme glacée est si froide qu'elle frigorifira tous vos adversaires!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à pommes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Cette pompe à jus de pomme est suffisamment puissante pour faire tomber vos adversaire dans les pommes en un rien de temps!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à ananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Saviez-vous qu'un ananas prend 3 ans à pousser? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à carottes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Maman Arthur ne t’a jamais dit que les carottes sont bonnes pour les yeux? En tous cas, tu ne veux pas manger ceux-là dans les yeux! Ha ha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balle08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉGULIER : Attention de ne pas échapper ce fruit par terre. Il pourrait vous faire trébucher!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Ce jus de fruit bourré de vitamines va faire le plus grand plaisir des toutous enrhumés</t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_frisbee_rouge₀</t>
   </si>
   <si>
@@ -298,6 +493,42 @@
     <t xml:space="preserve">RARE : Les toutous veulent toujours plus de mangue. Donnez-en leur toute une dose avec ce Bambouzla!.</t>
   </si>
   <si>
+    <t xml:space="preserve">outil04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Cette boisson contient tant de caféine qu'elle sortira vos adversaires de votre rêve plus rapidement que l'éclair!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à frites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÉGENDAIRE : Fraîchement sorties de la friteuse, ces frites croustillantes et chaudes deviendront le régal de tous les toutous de ce monde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à barbotine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÉGENDAIRE : Attention! Ce lance barbotine est réputé pour donner les pires "gels de cerveau".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outil02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à pizzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÉGENDAIRE : Ce projectilateur permet de lancer les pointes si rapidement qu,il renpliroa le ventre de vos adversaires plus rapidement que l'éclair!</t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_masterball</t>
   </si>
   <si>
@@ -325,6 +556,15 @@
     <t xml:space="preserve">LÉGENDAIRE : Ce frisbee mauve est la version la plus puissante des disques colorés. Elle touche jusqu'à 4 toutous d'un seul coup!</t>
   </si>
   <si>
+    <t xml:space="preserve">outil08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projectilateur à bananes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Saviez-vous que le nom scientifique de la banane (musa sapientum) signifit homme rusé? </t>
+  </si>
+  <si>
     <t xml:space="preserve">objet_outil_safariball</t>
   </si>
   <si>
@@ -332,246 +572,6 @@
   </si>
   <si>
     <t xml:space="preserve">LÉGENDAIRE : La Safari-Ball est pour les aventuriers, les «wild boys» qui n’attrapent pas les pokémons, ils les chassent!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à bacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÉGENDAIRE : Il y a quelque chose dans ce canon qui rend cette viande affreusement appétissante!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à pizzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÉGENDAIRE : Ce projectilateur permet de lancer les pointes si rapidement qu,il renpliroa le ventre de vos adversaires plus rapidement que l'éclair!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à frites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÉGENDAIRE : Fraîchement sorties de la friteuse, ces frites croustillantes et chaudes deviendront le régal de tous les toutous de ce monde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à crème-glacée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÉGENDAIRE : La créme glacée est si froide qu'elle frigorifira tous vos adversaires!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à barbotine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÉGENDAIRE : Attention! Ce lance barbotine est réputé pour donner les pires "gels de cerveau".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à café</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Cette boisson contient tant de caféine qu'elle sortira vos adversaires de votre rêve plus rapidement que l'éclair!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à Pepsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Bien que les toutous préfèrent secrètement le Coca Cola, ils ne diront certainement pas non à une bonne dose de Pepsi!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Ce jus de fruit bourré de vitamines va faire le plus grand plaisir des toutous enrhumés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à pommes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Cette pompe à jus de pomme est suffisamment puissante pour faire tomber vos adversaire dans les pommes en un rien de temps!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à bananes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Saviez-vous que le nom scientifique de la banane (musa sapientum) signifit homme rusé? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à ananas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Saviez-vous qu'un ananas prend 3 ans à pousser? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à cerises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Ces petits fruits deviennent très caloriques lorsqu'elles sont projectilisées à haute vitesse par ce projectilateur!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à baies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Presque inoffensives individuellement, les baies deviennent redoutables en grand nombre!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projectilateur à carottes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Maman Arthur ne t’a jamais dit que les carottes sont bonnes pour les yeux? En tous cas, tu ne veux pas manger ceux-là dans les yeux! Ha ha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Rien de mieux que du bon bacon pour se graisser les artères.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : La spécialité de italienne contient fromage, pepperoni, sauce tomate et poivrons. Dequoi faire saliver tous vos adversaires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : Bien chaudes et croustillante, elle deviendront le régal de tous les toutous de ce monde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pepsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARE : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boule de crème-glacée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÉGULIER : Saviez-vous qu'un américain moyen consomme environ 23 litres de crème glacée par année? Il y a dequoi rendre jaloux ces gourmants toutous!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbotine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÉGULIER : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jus d'orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jus de pommes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÉGULIER : Attention de ne pas échapper ce fruit par terre. Il pourrait vous faire trébucher!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÉGULIER : Ce fruit trop acide pourrait donner des maux d'estomac aux toutous. Par contre, ils prioriseront toujours le plaisisr de leurs papilles gustatives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balle12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÉGULIER : Aliment #1 des lapins, les toutous vont sans aucun doute l'apprécier.</t>
   </si>
 </sst>
 </file>
@@ -638,14 +638,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -758,6 +758,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -766,27 +778,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>0</v>
       </c>
@@ -968,14 +968,14 @@
         <v>14</v>
       </c>
       <c r="J3" s="5" t="n">
-        <f aca="false">(G3^2)/10</f>
-        <v>15.625</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G3^(3/2)))</f>
+        <v>44</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
@@ -1005,14 +1005,14 @@
         <v>14</v>
       </c>
       <c r="J4" s="5" t="n">
-        <f aca="false">(G4^2)/10</f>
-        <v>15.625</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G4^(3/2)))</f>
+        <v>44</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
@@ -1042,8 +1042,8 @@
         <v>21</v>
       </c>
       <c r="J5" s="5" t="n">
-        <f aca="false">(G5^2)/10</f>
-        <v>15.625</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G5^(3/2)))</f>
+        <v>44</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>22</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -1060,10 +1060,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
@@ -1076,19 +1076,19 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J6" s="5" t="n">
-        <f aca="false">(G6^2)/10</f>
-        <v>22.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G6^(3/2)))</f>
+        <v>58</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -1097,10 +1097,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>1</v>
@@ -1109,23 +1109,23 @@
         <f aca="false">(D7*F7)/E7</f>
         <v>15</v>
       </c>
-      <c r="H7" s="8" t="n">
-        <v>1</v>
+      <c r="H7" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="5" t="n">
-        <f aca="false">(G7^2)/10</f>
-        <v>22.5</v>
-      </c>
-      <c r="K7" s="9" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G7^(3/2)))</f>
+        <v>58</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -1134,10 +1134,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="J8" s="5" t="n">
-        <f aca="false">(G8^2)/10</f>
-        <v>22.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G8^(3/2)))</f>
+        <v>58</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
@@ -1171,10 +1171,10 @@
         <v>33</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
@@ -1190,8 +1190,8 @@
         <v>21</v>
       </c>
       <c r="J9" s="5" t="n">
-        <f aca="false">(G9^2)/10</f>
-        <v>22.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G9^(3/2)))</f>
+        <v>58</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>34</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
@@ -1208,7 +1208,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">(D10*F10)/E10</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>1</v>
@@ -1227,16 +1227,16 @@
         <v>21</v>
       </c>
       <c r="J10" s="5" t="n">
-        <f aca="false">(G10^2)/10</f>
-        <v>25.6</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G10^(3/2)))</f>
+        <v>58</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -1245,17 +1245,17 @@
         <v>39</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">(D11*F11)/E11</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" s="8" t="n">
         <v>1</v>
@@ -1264,16 +1264,16 @@
         <v>21</v>
       </c>
       <c r="J11" s="5" t="n">
-        <f aca="false">(G11^2)/10</f>
-        <v>32.4</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G11^(3/2)))</f>
+        <v>58</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>41</v>
@@ -1282,17 +1282,17 @@
         <v>42</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">(D12*F12)/E12</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="8" t="n">
         <v>1</v>
@@ -1301,16 +1301,16 @@
         <v>21</v>
       </c>
       <c r="J12" s="5" t="n">
-        <f aca="false">(G12^2)/10</f>
-        <v>40</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G12^(3/2)))</f>
+        <v>64</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
@@ -1319,7 +1319,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">(D13*F13)/E13</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="8" t="n">
         <v>1</v>
@@ -1338,16 +1338,16 @@
         <v>21</v>
       </c>
       <c r="J13" s="5" t="n">
-        <f aca="false">(G13^2)/10</f>
-        <v>40</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G13^(3/2)))</f>
+        <v>76</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
@@ -1356,13 +1356,13 @@
         <v>48</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">(D14*F14)/E14</f>
@@ -1375,8 +1375,8 @@
         <v>21</v>
       </c>
       <c r="J14" s="5" t="n">
-        <f aca="false">(G14^2)/10</f>
-        <v>40</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G14^(3/2)))</f>
+        <v>89</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>49</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>50</v>
@@ -1393,17 +1393,17 @@
         <v>51</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">(D15*F15)/E15</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8" t="n">
         <v>1</v>
@@ -1412,16 +1412,16 @@
         <v>21</v>
       </c>
       <c r="J15" s="5" t="n">
-        <f aca="false">(G15^2)/10</f>
-        <v>62.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G15^(3/2)))</f>
+        <v>89</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>53</v>
@@ -1430,17 +1430,17 @@
         <v>54</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">(D16*F16)/E16</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8" t="n">
         <v>1</v>
@@ -1449,16 +1449,16 @@
         <v>21</v>
       </c>
       <c r="J16" s="5" t="n">
-        <f aca="false">(G16^2)/10</f>
-        <v>62.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G16^(3/2)))</f>
+        <v>89</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>56</v>
@@ -1467,7 +1467,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>1</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">(D17*F17)/E17</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8" t="n">
         <v>1</v>
@@ -1486,16 +1486,16 @@
         <v>21</v>
       </c>
       <c r="J17" s="5" t="n">
-        <f aca="false">(G17^2)/10</f>
-        <v>90</v>
-      </c>
-      <c r="K17" s="10" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G17^(3/2)))</f>
+        <v>89</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>59</v>
@@ -1504,17 +1504,17 @@
         <v>60</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="7" t="n">
         <f aca="false">(D18*F18)/E18</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8" t="n">
         <v>1</v>
@@ -1523,25 +1523,25 @@
         <v>21</v>
       </c>
       <c r="J18" s="5" t="n">
-        <f aca="false">(G18^2)/10</f>
-        <v>90</v>
-      </c>
-      <c r="K18" s="9" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G18^(3/2)))</f>
+        <v>89</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>1</v>
@@ -1551,34 +1551,34 @@
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">(D19*F19)/E19</f>
-        <v>30</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="5" t="n">
-        <f aca="false">(G19^2)/10</f>
-        <v>90</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G19^(3/2)))</f>
+        <v>89</v>
       </c>
       <c r="K19" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>1</v>
@@ -1588,256 +1588,256 @@
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">(D20*F20)/E20</f>
-        <v>40</v>
-      </c>
-      <c r="H20" s="12" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="5" t="n">
-        <f aca="false">(G20^2)/10</f>
-        <v>160</v>
-      </c>
-      <c r="K20" s="13" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G20^(3/2)))</f>
+        <v>89</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D21" s="5" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">(D21*F21)/E21</f>
-        <v>40</v>
-      </c>
-      <c r="H21" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J21" s="5" t="n">
-        <f aca="false">(G21^2)/10</f>
-        <v>160</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>70</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G21^(3/2)))</f>
+        <v>125</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="7" t="n">
         <f aca="false">(D22*F22)/E22</f>
-        <v>40</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="5" t="n">
-        <f aca="false">(G22^2)/10</f>
-        <v>160</v>
-      </c>
-      <c r="K22" s="9" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G22^(3/2)))</f>
+        <v>125</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D23" s="5" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">(D23*F23)/E23</f>
-        <v>45</v>
-      </c>
-      <c r="H23" s="12" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="5" t="n">
-        <f aca="false">(G23^2)/10</f>
-        <v>202.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G23^(3/2)))</f>
+        <v>125</v>
       </c>
       <c r="K23" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" s="5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">(D24*F24)/E24</f>
-        <v>50</v>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="5" t="n">
-        <f aca="false">(G24^2)/10</f>
-        <v>250</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>79</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G24^(3/2)))</f>
+        <v>125</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="7" t="n">
         <f aca="false">(D25*F25)/E25</f>
-        <v>50</v>
-      </c>
-      <c r="H25" s="12" t="n">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="5" t="n">
-        <f aca="false">(G25^2)/10</f>
-        <v>250</v>
-      </c>
-      <c r="K25" s="14" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G25^(3/2)))</f>
+        <v>164</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="5" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">(D26*F26)/E26</f>
-        <v>60</v>
-      </c>
-      <c r="H26" s="12" t="n">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="5" t="n">
-        <f aca="false">(G26^2)/10</f>
-        <v>360</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G26^(3/2)))</f>
+        <v>164</v>
       </c>
       <c r="K26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D27" s="5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>1</v>
@@ -1847,71 +1847,71 @@
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">(D27*F27)/E27</f>
-        <v>60</v>
-      </c>
-      <c r="H27" s="15" t="n">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="5" t="n">
-        <f aca="false">(G27^2)/10</f>
-        <v>360</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>88</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G27^(3/2)))</f>
+        <v>164</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">(D28*F28)/E28</f>
-        <v>62.5</v>
-      </c>
-      <c r="H28" s="12" t="n">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="5" t="n">
-        <f aca="false">(G28^2)/10</f>
-        <v>390.625</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G28^(3/2)))</f>
+        <v>164</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>1</v>
@@ -1921,108 +1921,108 @@
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">(D29*F29)/E29</f>
-        <v>85</v>
-      </c>
-      <c r="H29" s="16" t="n">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="5" t="n">
-        <f aca="false">(G29^2)/10</f>
-        <v>722.5</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G29^(3/2)))</f>
+        <v>164</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">(D30*F30)/E30</f>
-        <v>100</v>
-      </c>
-      <c r="H30" s="16" t="n">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J30" s="5" t="n">
-        <f aca="false">(G30^2)/10</f>
-        <v>1000</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G30^(3/2)))</f>
+        <v>164</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">(D31*F31)/E31</f>
-        <v>100</v>
-      </c>
-      <c r="H31" s="16" t="n">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="H31" s="15" t="n">
+        <v>2</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J31" s="5" t="n">
-        <f aca="false">(G31^2)/10</f>
-        <v>1000</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G31^(3/2)))</f>
+        <v>207</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>1</v>
@@ -2032,71 +2032,71 @@
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">(D32*F32)/E32</f>
-        <v>110</v>
-      </c>
-      <c r="H32" s="16" t="n">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="H32" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="5" t="n">
-        <f aca="false">(G32^2)/10</f>
-        <v>1210</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G32^(3/2)))</f>
+        <v>207</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="7" t="n">
         <f aca="false">(D33*F33)/E33</f>
-        <v>100</v>
-      </c>
-      <c r="H33" s="16" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J33" s="5" t="n">
-        <f aca="false">(G33^2)/10</f>
-        <v>1000</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G33^(3/2)))</f>
+        <v>252</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0.5</v>
@@ -2106,108 +2106,108 @@
       </c>
       <c r="G34" s="7" t="n">
         <f aca="false">(D34*F34)/E34</f>
-        <v>90</v>
-      </c>
-      <c r="H34" s="16" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="5" t="n">
-        <f aca="false">(G34^2)/10</f>
-        <v>810</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G34^(3/2)))</f>
+        <v>252</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="7" t="n">
         <f aca="false">(D35*F35)/E35</f>
-        <v>100</v>
-      </c>
-      <c r="H35" s="16" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H35" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="5" t="n">
-        <f aca="false">(G35^2)/10</f>
-        <v>1000</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G35^(3/2)))</f>
+        <v>252</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>40</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="7" t="n">
         <f aca="false">(D36*F36)/E36</f>
-        <v>80</v>
-      </c>
-      <c r="H36" s="16" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H36" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="5" t="n">
-        <f aca="false">(G36^2)/10</f>
-        <v>640</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G36^(3/2)))</f>
+        <v>252</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>0.5</v>
@@ -2217,111 +2217,111 @@
       </c>
       <c r="G37" s="7" t="n">
         <f aca="false">(D37*F37)/E37</f>
-        <v>80</v>
-      </c>
-      <c r="H37" s="16" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H37" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="5" t="n">
-        <f aca="false">(G37^2)/10</f>
-        <v>640</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G37^(3/2)))</f>
+        <v>252</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="7" t="n">
         <f aca="false">(D38*F38)/E38</f>
-        <v>70</v>
-      </c>
-      <c r="H38" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H38" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="5" t="n">
-        <f aca="false">(G38^2)/10</f>
-        <v>490</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G38^(3/2)))</f>
+        <v>252</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="7" t="n">
         <f aca="false">(D39*F39)/E39</f>
-        <v>70</v>
-      </c>
-      <c r="H39" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="H39" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="5" t="n">
-        <f aca="false">(G39^2)/10</f>
-        <v>490</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G39^(3/2)))</f>
+        <v>301</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1</v>
@@ -2330,35 +2330,35 @@
         <f aca="false">(D40*F40)/E40</f>
         <v>50</v>
       </c>
-      <c r="H40" s="12" t="n">
+      <c r="H40" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="5" t="n">
-        <f aca="false">(G40^2)/10</f>
-        <v>250</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G40^(3/2)))</f>
+        <v>353</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>1</v>
@@ -2367,35 +2367,35 @@
         <f aca="false">(D41*F41)/E41</f>
         <v>50</v>
       </c>
-      <c r="H41" s="12" t="n">
+      <c r="H41" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="5" t="n">
-        <f aca="false">(G41^2)/10</f>
-        <v>250</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G41^(3/2)))</f>
+        <v>353</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>1</v>
@@ -2404,35 +2404,35 @@
         <f aca="false">(D42*F42)/E42</f>
         <v>50</v>
       </c>
-      <c r="H42" s="12" t="n">
-        <v>2</v>
+      <c r="H42" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="5" t="n">
-        <f aca="false">(G42^2)/10</f>
-        <v>250</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G42^(3/2)))</f>
+        <v>353</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>50</v>
-      </c>
       <c r="E43" s="5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>1</v>
@@ -2441,103 +2441,103 @@
         <f aca="false">(D43*F43)/E43</f>
         <v>50</v>
       </c>
-      <c r="H43" s="12" t="n">
-        <v>2</v>
+      <c r="H43" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J43" s="5" t="n">
-        <f aca="false">(G43^2)/10</f>
-        <v>250</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G43^(3/2)))</f>
+        <v>353</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="7" t="n">
         <f aca="false">(D44*F44)/E44</f>
+        <v>50</v>
+      </c>
+      <c r="H44" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH((G44^(3/2)))</f>
+        <v>353</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="B45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" s="5" t="n">
         <v>2</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="5" t="n">
-        <f aca="false">(G44^2)/10</f>
-        <v>160</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E45" s="5" t="n">
-        <v>0.2</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="7" t="n">
         <f aca="false">(D45*F45)/E45</f>
-        <v>40</v>
-      </c>
-      <c r="H45" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="5" t="n">
-        <f aca="false">(G45^2)/10</f>
-        <v>160</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G45^(3/2)))</f>
+        <v>353</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>25</v>
@@ -2552,143 +2552,143 @@
         <f aca="false">(D46*F46)/E46</f>
         <v>50</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="5" t="n">
-        <f aca="false">(G46^2)/10</f>
-        <v>250</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G46^(3/2)))</f>
+        <v>353</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="7" t="n">
         <f aca="false">(D47*F47)/E47</f>
-        <v>40</v>
-      </c>
-      <c r="H47" s="12" t="n">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="H47" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="5" t="n">
-        <f aca="false">(G47^2)/10</f>
-        <v>160</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G47^(3/2)))</f>
+        <v>353</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="7" t="n">
         <f aca="false">(D48*F48)/E48</f>
-        <v>35</v>
-      </c>
-      <c r="H48" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="H48" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J48" s="5" t="n">
-        <f aca="false">(G48^2)/10</f>
-        <v>122.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G48^(3/2)))</f>
+        <v>464</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="7" t="n">
         <f aca="false">(D49*F49)/E49</f>
-        <v>35</v>
-      </c>
-      <c r="H49" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="H49" s="10" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="5" t="n">
-        <f aca="false">(G49^2)/10</f>
-        <v>122.5</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G49^(3/2)))</f>
+        <v>464</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>1</v>
@@ -2698,219 +2698,219 @@
       </c>
       <c r="G50" s="7" t="n">
         <f aca="false">(D50*F50)/E50</f>
-        <v>35</v>
-      </c>
-      <c r="H50" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="H50" s="15" t="n">
         <v>2</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="5" t="n">
-        <f aca="false">(G50^2)/10</f>
-        <v>122.5</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G50^(3/2)))</f>
+        <v>464</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="7" t="n">
         <f aca="false">(D51*F51)/E51</f>
+        <v>62.5</v>
+      </c>
+      <c r="H51" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH((G51^(3/2)))</f>
+        <v>494</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="H51" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="5" t="n">
-        <f aca="false">(G51^2)/10</f>
-        <v>122.5</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <v>49</v>
-      </c>
       <c r="B52" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="7" t="n">
         <f aca="false">(D52*F52)/E52</f>
-        <v>30</v>
-      </c>
-      <c r="H52" s="8" t="n">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="H52" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J52" s="5" t="n">
-        <f aca="false">(G52^2)/10</f>
-        <v>90</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G52^(3/2)))</f>
+        <v>585</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="7" t="n">
         <f aca="false">(D53*F53)/E53</f>
-        <v>30</v>
-      </c>
-      <c r="H53" s="8" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="H53" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="5" t="n">
-        <f aca="false">(G53^2)/10</f>
-        <v>90</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G53^(3/2)))</f>
+        <v>649</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="7" t="n">
         <f aca="false">(D54*F54)/E54</f>
-        <v>25</v>
-      </c>
-      <c r="H54" s="8" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="H54" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="5" t="n">
-        <f aca="false">(G54^2)/10</f>
-        <v>62.5</v>
-      </c>
-      <c r="K54" s="17" t="s">
+        <f aca="false">_xlfn.FLOOR.MATH((G54^(3/2)))</f>
+        <v>715</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="7" t="n">
         <f aca="false">(D55*F55)/E55</f>
-        <v>25</v>
-      </c>
-      <c r="H55" s="8" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="H55" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="5" t="n">
-        <f aca="false">(G55^2)/10</f>
-        <v>62.5</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G55^(3/2)))</f>
+        <v>715</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>1</v>
@@ -2920,136 +2920,136 @@
       </c>
       <c r="G56" s="7" t="n">
         <f aca="false">(D56*F56)/E56</f>
-        <v>25</v>
-      </c>
-      <c r="H56" s="8" t="n">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="H56" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J56" s="5" t="n">
-        <f aca="false">(G56^2)/10</f>
-        <v>62.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G56^(3/2)))</f>
+        <v>783</v>
       </c>
       <c r="K56" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>30</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="7" t="n">
         <f aca="false">(D57*F57)/E57</f>
-        <v>30</v>
-      </c>
-      <c r="H57" s="8" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H57" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J57" s="5" t="n">
-        <f aca="false">(G57^2)/10</f>
-        <v>90</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G57^(3/2)))</f>
+        <v>1000</v>
       </c>
       <c r="K57" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="D58" s="5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" s="7" t="n">
         <f aca="false">(D58*F58)/E58</f>
-        <v>20</v>
-      </c>
-      <c r="H58" s="8" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="5" t="n">
-        <f aca="false">(G58^2)/10</f>
-        <v>40</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G58^(3/2)))</f>
+        <v>1000</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="D59" s="5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="7" t="n">
         <f aca="false">(D59*F59)/E59</f>
-        <v>20</v>
-      </c>
-      <c r="H59" s="8" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H59" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="5" t="n">
-        <f aca="false">(G59^2)/10</f>
-        <v>40</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.FLOOR.MATH((G59^(3/2)))</f>
+        <v>1000</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>181</v>
@@ -3058,7 +3058,7 @@
         <v>182</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>1</v>
@@ -3068,504 +3068,55 @@
       </c>
       <c r="G60" s="7" t="n">
         <f aca="false">(D60*F60)/E60</f>
-        <v>15</v>
-      </c>
-      <c r="H60" s="8" t="n">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="H60" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J60" s="5" t="n">
-        <f aca="false">(G60^2)/10</f>
-        <v>22.5</v>
+        <f aca="false">_xlfn.FLOOR.MATH((G60^(3/2)))</f>
+        <v>1153</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="18" t="e">
-        <f aca="false">(D63*F63)/E63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="18" t="e">
-        <f aca="false">(D64*F64)/E64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="18" t="e">
-        <f aca="false">(D65*F65)/E65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="18" t="e">
-        <f aca="false">(D66*F66)/E66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="18" t="e">
-        <f aca="false">(D67*F67)/E67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="18" t="e">
-        <f aca="false">(D68*F68)/E68</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="18" t="e">
-        <f aca="false">(D69*F69)/E69</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
-        <v>65</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="18" t="e">
-        <f aca="false">(D70*F70)/E70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="18" t="e">
-        <f aca="false">(D71*F71)/E71</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="18" t="e">
-        <f aca="false">(D72*F72)/E72</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="18" t="e">
-        <f aca="false">(D73*F73)/E73</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="18" t="e">
-        <f aca="false">(D74*F74)/E74</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="18" t="e">
-        <f aca="false">(D75*F75)/E75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="18" t="e">
-        <f aca="false">(D76*F76)/E76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="18" t="e">
-        <f aca="false">(D77*F77)/E77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="18" t="e">
-        <f aca="false">(D78*F78)/E78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="18" t="e">
-        <f aca="false">(D79*F79)/E79</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="18" t="e">
-        <f aca="false">(D80*F80)/E80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="18" t="e">
-        <f aca="false">(D81*F81)/E81</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="18" t="e">
-        <f aca="false">(D82*F82)/E82</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="18" t="e">
-        <f aca="false">(D83*F83)/E83</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="9"/>
-    </row>
-    <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="18" t="e">
-        <f aca="false">(D84*F84)/E84</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="18" t="e">
-        <f aca="false">(D85*F85)/E85</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
-        <v>81</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="18" t="e">
-        <f aca="false">(D86*F86)/E86</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="9"/>
-    </row>
-    <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
-        <v>82</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="18" t="e">
-        <f aca="false">(D87*F87)/E87</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
-        <v>83</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="18" t="e">
-        <f aca="false">(D88*F88)/E88</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="9"/>
-    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J60)</f>
+        <v>297.655172413793</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <v>84</v>
